--- a/newGsdExcel.xlsx
+++ b/newGsdExcel.xlsx
@@ -2544,7 +2544,7 @@
       <c r="O15" s="19"/>
       <c r="P15" s="19"/>
       <c r="Q15" s="20">
-        <v>0</v>
+        <v>7.66</v>
       </c>
       <c r="R15" s="14">
         <f t="shared" si="0"/>
@@ -2575,7 +2575,7 @@
       <c r="O16" s="19"/>
       <c r="P16" s="19"/>
       <c r="Q16" s="20">
-        <v>0.15</v>
+        <v>0.64</v>
       </c>
       <c r="R16" s="14">
         <f t="shared" si="0"/>
@@ -2612,7 +2612,7 @@
       <c r="O17" s="19"/>
       <c r="P17" s="19"/>
       <c r="Q17" s="20">
-        <v>0.1</v>
+        <v>0.38</v>
       </c>
       <c r="R17" s="14">
         <f t="shared" si="0"/>
@@ -2649,7 +2649,7 @@
       <c r="O18" s="19"/>
       <c r="P18" s="19"/>
       <c r="Q18" s="20">
-        <v>10.17</v>
+        <v>0.34</v>
       </c>
       <c r="R18" s="14">
         <f t="shared" si="0"/>
@@ -2686,7 +2686,7 @@
       <c r="O19" s="19"/>
       <c r="P19" s="19"/>
       <c r="Q19" s="20">
-        <v>10.8</v>
+        <v>1.44</v>
       </c>
       <c r="R19" s="14">
         <f t="shared" si="0"/>
@@ -2723,7 +2723,7 @@
       <c r="O20" s="19"/>
       <c r="P20" s="19"/>
       <c r="Q20" s="20">
-        <v>11.5</v>
+        <v>1.46</v>
       </c>
       <c r="R20" s="14">
         <f t="shared" si="0"/>
